--- a/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_5_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P3_Assembled/X002_PreSatellite/curve_0.0_5_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P3_Assembled\X002_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519B146-920A-420D-ADAB-457F5EE65EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.62774048046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.627740480457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003213675213675214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>1.086222222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.5044410926763869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.9014358974358975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.339031339031339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <f>MAX(Data!$E$2:$E$257)</f>
         <v>1.207050916794506</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>12070509.16794506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.73863812385761618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.2081122270335356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.20811222703353549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,182 +626,182 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C2">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D2">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E2">
-        <v>0.00407539472798397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.0753947279839704E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C3">
         <v>1.299648064353947</v>
       </c>
       <c r="D3">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E3">
-        <v>0.004176646770915248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4.1766467709152483E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C4">
         <v>1.331154684095861</v>
       </c>
       <c r="D4">
-        <v>22.95094282923898</v>
+        <v>22.950942829238979</v>
       </c>
       <c r="E4">
-        <v>0.008555797627693052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.5557976276930525E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009641025641025642</v>
+        <v>9.6410256410256415E-3</v>
       </c>
       <c r="C5">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D5">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E5">
-        <v>0.01306151353813495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.306151353813495E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01285470085470086</v>
+        <v>1.2854700854700861E-2</v>
       </c>
       <c r="C6">
         <v>1.378414613708731</v>
       </c>
       <c r="D6">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E6">
-        <v>0.01771910751297378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.7719107512973779E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01767521367521368</v>
+        <v>1.7675213675213679E-2</v>
       </c>
       <c r="C7">
         <v>1.394167923579688</v>
       </c>
       <c r="D7">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E7">
-        <v>0.02464221594839996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.4642215948399961E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0224957264957265</v>
+        <v>2.2495726495726499E-2</v>
       </c>
       <c r="C8">
         <v>1.409921233450645</v>
       </c>
       <c r="D8">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E8">
-        <v>0.03171720244822306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.1717202448223063E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02731623931623932</v>
+        <v>2.7316239316239319E-2</v>
       </c>
       <c r="C9">
         <v>1.425674543321602</v>
       </c>
       <c r="D9">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E9">
-        <v>0.03894406701244308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3.894406701244308E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03535042735042735</v>
+        <v>3.5350427350427351E-2</v>
       </c>
       <c r="C10">
         <v>1.433551198257081</v>
       </c>
       <c r="D10">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E10">
-        <v>0.050676647487105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>5.0676647487105E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04338461538461538</v>
+        <v>4.3384615384615383E-2</v>
       </c>
       <c r="C11">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D11">
         <v>24.85220436538895</v>
       </c>
       <c r="E11">
-        <v>0.06253579301543102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6.2535793015431024E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05141880341880342</v>
+        <v>5.1418803418803422E-2</v>
       </c>
       <c r="C12">
         <v>1.449304508128038</v>
@@ -770,32 +810,32 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E12">
-        <v>0.07452150359742116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>7.4521503597421157E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05945299145299145</v>
+        <v>5.9452991452991447E-2</v>
       </c>
       <c r="C13">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D13">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E13">
-        <v>0.08663377923307536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8.6633779233075359E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06748717948717949</v>
+        <v>6.7487179487179486E-2</v>
       </c>
       <c r="C14">
         <v>1.465057817998995</v>
@@ -804,52 +844,52 @@
         <v>25.2596175517068</v>
       </c>
       <c r="E14">
-        <v>0.09887261992239368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9.8872619922393684E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07552136752136752</v>
+        <v>7.5521367521367525E-2</v>
       </c>
       <c r="C15">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D15">
         <v>25.39542194714608</v>
       </c>
       <c r="E15">
-        <v>0.1112380256653761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.11123802566537611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08194871794871794</v>
+        <v>8.1948717948717942E-2</v>
       </c>
       <c r="C16">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D16">
         <v>25.39542194714608</v>
       </c>
       <c r="E16">
-        <v>0.1207050916794506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.12070509167945059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08998290598290598</v>
+        <v>8.9982905982905981E-2</v>
       </c>
       <c r="C17">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D17">
         <v>25.53122634258537</v>
@@ -858,7 +898,7 @@
         <v>0.1332476884975628</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -866,16 +906,16 @@
         <v>0.1044444444444444</v>
       </c>
       <c r="C18">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D18">
         <v>25.53122634258537</v>
       </c>
       <c r="E18">
-        <v>0.1546624955775283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.15466249557752829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,33 +923,33 @@
         <v>0.1172991452991453</v>
       </c>
       <c r="C19">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D19">
         <v>25.53122634258537</v>
       </c>
       <c r="E19">
-        <v>0.1736978796486087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.17369787964860869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1301538461538461</v>
+        <v>0.13015384615384609</v>
       </c>
       <c r="C20">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D20">
         <v>25.66703073802465</v>
       </c>
       <c r="E20">
-        <v>0.1937584406543683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.19375844065436831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -917,24 +957,24 @@
         <v>0.1414017094017094</v>
       </c>
       <c r="C21">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D21">
         <v>25.66703073802465</v>
       </c>
       <c r="E21">
-        <v>0.2105029972541285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.21050299725412849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1526495726495727</v>
+        <v>0.15264957264957271</v>
       </c>
       <c r="C22">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D22">
         <v>25.66703073802465</v>
@@ -943,7 +983,7 @@
         <v>0.2272475538538887</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -960,12 +1000,12 @@
         <v>0.2428783379814049</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.171931623931624</v>
+        <v>0.17193162393162401</v>
       </c>
       <c r="C24">
         <v>1.496564437740908</v>
@@ -974,10 +1014,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E24">
-        <v>0.2573067540991121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.25730675409911208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -991,10 +1031,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E25">
-        <v>0.2717351702168193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.27173517021681931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1008,15 +1048,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E26">
-        <v>0.2885683223541444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.28856832235414442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2040683760683761</v>
+        <v>0.20406837606837611</v>
       </c>
       <c r="C27">
         <v>1.496564437740908</v>
@@ -1025,10 +1065,10 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E27">
-        <v>0.3054014744914695</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.30540147449146948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1042,15 +1082,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E28">
-        <v>0.3198298906091767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.31982989060917671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2233504273504273</v>
+        <v>0.22335042735042729</v>
       </c>
       <c r="C29">
         <v>1.496564437740908</v>
@@ -1059,18 +1099,18 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E29">
-        <v>0.3342583067268839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.33425830672688389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2313846153846154</v>
+        <v>0.23138461538461541</v>
       </c>
       <c r="C30">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D30">
         <v>25.93863952890322</v>
@@ -1079,7 +1119,7 @@
         <v>0.3481045235977363</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1093,15 +1133,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E31">
-        <v>0.3607104029426805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.36071040294268047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.249059829059829</v>
+        <v>0.24905982905982901</v>
       </c>
       <c r="C32">
         <v>1.496564437740908</v>
@@ -1110,15 +1150,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E32">
-        <v>0.3727340830407698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.37273408304076983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2587008547008547</v>
+        <v>0.25870085470085469</v>
       </c>
       <c r="C33">
         <v>1.496564437740908</v>
@@ -1127,15 +1167,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E33">
-        <v>0.3871624991584771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.38716249915847711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2795897435897436</v>
+        <v>0.27958974358974359</v>
       </c>
       <c r="C34">
         <v>1.496564437740908</v>
@@ -1144,15 +1184,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E34">
-        <v>0.4184240674135093</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.41842406741350929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.2972649572649573</v>
+        <v>0.29726495726495727</v>
       </c>
       <c r="C35">
         <v>1.496564437740908</v>
@@ -1161,15 +1201,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E35">
-        <v>0.4448761636293059</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.44487616362930588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.314940170940171</v>
+        <v>0.31494017094017102</v>
       </c>
       <c r="C36">
         <v>1.496564437740908</v>
@@ -1178,15 +1218,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E36">
-        <v>0.4713282598451025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.47132825984510252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.331008547008547</v>
+        <v>0.33100854700854698</v>
       </c>
       <c r="C37">
         <v>1.496564437740908</v>
@@ -1195,15 +1235,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E37">
-        <v>0.4953756200412813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.49537562004128127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3454700854700855</v>
+        <v>0.34547008547008551</v>
       </c>
       <c r="C38">
         <v>1.496564437740908</v>
@@ -1212,15 +1252,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E38">
-        <v>0.517018244217842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.51701824421784204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3583247863247863</v>
+        <v>0.35832478632478632</v>
       </c>
       <c r="C39">
         <v>1.496564437740908</v>
@@ -1229,15 +1269,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E39">
-        <v>0.536256132374785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.53625613237478498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3711794871794872</v>
+        <v>0.37117948717948718</v>
       </c>
       <c r="C40">
         <v>1.496564437740908</v>
@@ -1246,15 +1286,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E40">
-        <v>0.5554940205317279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.55549402053172792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3824273504273504</v>
+        <v>0.38242735042735038</v>
       </c>
       <c r="C41">
         <v>1.496564437740908</v>
@@ -1263,15 +1303,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E41">
-        <v>0.5723271726690531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.57232717266905309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3952820512820513</v>
+        <v>0.39528205128205129</v>
       </c>
       <c r="C42">
         <v>1.496564437740908</v>
@@ -1280,15 +1320,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E42">
-        <v>0.591565060825996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.59156506082599603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4065299145299145</v>
+        <v>0.40652991452991449</v>
       </c>
       <c r="C43">
         <v>1.496564437740908</v>
@@ -1297,15 +1337,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E43">
-        <v>0.6083982129633211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.60839821296332108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4193846153846154</v>
+        <v>0.41938461538461541</v>
       </c>
       <c r="C44">
         <v>1.496564437740908</v>
@@ -1314,15 +1354,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E44">
-        <v>0.6276361011202641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.62763610112026413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4290256410256411</v>
+        <v>0.42902564102564111</v>
       </c>
       <c r="C45">
         <v>1.496564437740908</v>
@@ -1331,15 +1371,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E45">
-        <v>0.6420645172379713</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.64206451723797131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4402735042735043</v>
+        <v>0.44027350427350431</v>
       </c>
       <c r="C46">
         <v>1.496564437740908</v>
@@ -1348,15 +1388,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E46">
-        <v>0.6588976693752964</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.65889766937529637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.44991452991453</v>
+        <v>0.44991452991453001</v>
       </c>
       <c r="C47">
         <v>1.496564437740908</v>
@@ -1365,15 +1405,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E47">
-        <v>0.6733260854930037</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.67332608549300366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4595555555555556</v>
+        <v>0.45955555555555561</v>
       </c>
       <c r="C48">
         <v>1.496564437740908</v>
@@ -1382,15 +1422,15 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E48">
-        <v>0.6877545016107108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.68775450161071083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4691965811965813</v>
+        <v>0.46919658119658131</v>
       </c>
       <c r="C49">
         <v>1.496564437740908</v>
@@ -1399,49 +1439,49 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E49">
-        <v>0.7021829177284181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.70218291772841812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4836581196581197</v>
+        <v>0.48365811965811972</v>
       </c>
       <c r="C50">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D50">
         <v>25.66703073802465</v>
       </c>
       <c r="E50">
-        <v>0.7200159337896895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.72001593378968953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4965128205128205</v>
+        <v>0.49651282051282047</v>
       </c>
       <c r="C51">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D51">
         <v>25.66703073802465</v>
       </c>
       <c r="E51">
-        <v>0.7391525699037012</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.73915256990370115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5093675213675214</v>
+        <v>0.50936752136752139</v>
       </c>
       <c r="C52">
         <v>1.496564437740908</v>
@@ -1450,18 +1490,18 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E52">
-        <v>0.7623013182188648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.76230131821886482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5222222222222223</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C53">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D53">
         <v>25.66703073802465</v>
@@ -1470,24 +1510,24 @@
         <v>0.7774258421317245</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5334700854700855</v>
+        <v>0.53347008547008545</v>
       </c>
       <c r="C54">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D54">
         <v>25.66703073802465</v>
       </c>
       <c r="E54">
-        <v>0.7941703987314847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.79417039873148465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1495,16 +1535,16 @@
         <v>0.5431111111111111</v>
       </c>
       <c r="C55">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D55">
         <v>25.66703073802465</v>
       </c>
       <c r="E55">
-        <v>0.8085228758169934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.80852287581699345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1512,7 +1552,7 @@
         <v>0.5543589743589743</v>
       </c>
       <c r="C56">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D56">
         <v>25.66703073802465</v>
@@ -1521,15 +1561,15 @@
         <v>0.8252674324167536</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5639999999999999</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C57">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D57">
         <v>25.66703073802465</v>
@@ -1538,41 +1578,41 @@
         <v>0.8396199095022624</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5752478632478633</v>
+        <v>0.57524786324786326</v>
       </c>
       <c r="C58">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D58">
         <v>25.66703073802465</v>
       </c>
       <c r="E58">
-        <v>0.8563644661020227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.85636446610202266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5864957264957265</v>
+        <v>0.58649572649572645</v>
       </c>
       <c r="C59">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D59">
         <v>25.66703073802465</v>
       </c>
       <c r="E59">
-        <v>0.8731090227017828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.87310902270178281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1580,24 +1620,24 @@
         <v>0.5961367521367521</v>
       </c>
       <c r="C60">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D60">
         <v>25.66703073802465</v>
       </c>
       <c r="E60">
-        <v>0.8874614997872916</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.88746149978729161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6057777777777777</v>
+        <v>0.60577777777777775</v>
       </c>
       <c r="C61">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D61">
         <v>25.66703073802465</v>
@@ -1606,134 +1646,134 @@
         <v>0.9018139768728004</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6138119658119658</v>
+        <v>0.61381196581196584</v>
       </c>
       <c r="C62">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D62">
         <v>25.66703073802465</v>
       </c>
       <c r="E62">
-        <v>0.9137743744440577</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.91377437444405774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6234529914529915</v>
+        <v>0.62345299145299149</v>
       </c>
       <c r="C63">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D63">
         <v>25.66703073802465</v>
       </c>
       <c r="E63">
-        <v>0.9281268515295665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.92812685152956653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6314871794871795</v>
+        <v>0.63148717948717947</v>
       </c>
       <c r="C64">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D64">
         <v>25.66703073802465</v>
       </c>
       <c r="E64">
-        <v>0.9400872491008238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.94008724910082375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6411282051282051</v>
+        <v>0.64112820512820512</v>
       </c>
       <c r="C65">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D65">
         <v>25.53122634258537</v>
       </c>
       <c r="E65">
-        <v>0.949389780545135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.94938978054513501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.653982905982906</v>
+        <v>0.65398290598290598</v>
       </c>
       <c r="C66">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D66">
         <v>25.53122634258537</v>
       </c>
       <c r="E66">
-        <v>0.9684251646162154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.96842516461621542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6668376068376068</v>
+        <v>0.66683760683760684</v>
       </c>
       <c r="C67">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D67">
         <v>25.39542194714608</v>
       </c>
       <c r="E67">
-        <v>0.9822080989602356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.98220809896023564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6796923076923077</v>
+        <v>0.67969230769230771</v>
       </c>
       <c r="C68">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D68">
         <v>25.39542194714608</v>
       </c>
       <c r="E68">
-        <v>1.001142230988385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.0011422309883851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.690940170940171</v>
+        <v>0.69094017094017102</v>
       </c>
       <c r="C69">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D69">
         <v>25.39542194714608</v>
@@ -1742,15 +1782,15 @@
         <v>1.017709596513015</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7005811965811966</v>
+        <v>0.70058119658119655</v>
       </c>
       <c r="C70">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D70">
         <v>25.39542194714608</v>
@@ -1759,7 +1799,7 @@
         <v>1.031910195534127</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1776,12 +1816,12 @@
         <v>1.040516619183286</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7198632478632478</v>
+        <v>0.71986324786324785</v>
       </c>
       <c r="C72">
         <v>1.465057817998995</v>
@@ -1790,66 +1830,66 @@
         <v>25.2596175517068</v>
       </c>
       <c r="E72">
-        <v>1.054641279172199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.0546412791721991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7295042735042735</v>
+        <v>0.72950427350427349</v>
       </c>
       <c r="C73">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D73">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E73">
-        <v>1.063019885724762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1.0630198857247619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7391452991452991</v>
+        <v>0.73914529914529914</v>
       </c>
       <c r="C74">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D74">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E74">
         <v>1.077068606681477</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7471794871794871</v>
+        <v>0.74717948717948712</v>
       </c>
       <c r="C75">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D75">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E75">
-        <v>1.088775874145406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1.0887758741454061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7568205128205128</v>
+        <v>0.75682051282051277</v>
       </c>
       <c r="C76">
         <v>1.449304508128038</v>
@@ -1861,12 +1901,12 @@
         <v>1.096863381074543</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7648547008547009</v>
+        <v>0.76485470085470086</v>
       </c>
       <c r="C77">
         <v>1.449304508128038</v>
@@ -1878,12 +1918,12 @@
         <v>1.10850736601164</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7744957264957265</v>
+        <v>0.77449572649572651</v>
       </c>
       <c r="C78">
         <v>1.449304508128038</v>
@@ -1892,35 +1932,35 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E78">
-        <v>1.122480147936156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1.1224801479361559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7809230769230769</v>
+        <v>0.78092307692307694</v>
       </c>
       <c r="C79">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D79">
         <v>24.85220436538895</v>
       </c>
       <c r="E79">
-        <v>1.125644274277758</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1.1256442742777579</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.788957264957265</v>
+        <v>0.78895726495726504</v>
       </c>
       <c r="C80">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D80">
         <v>24.85220436538895</v>
@@ -1929,24 +1969,24 @@
         <v>1.137224976688024</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7969914529914529</v>
+        <v>0.79699145299145291</v>
       </c>
       <c r="C81">
         <v>1.433551198257081</v>
       </c>
       <c r="D81">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E81">
-        <v>1.142528052436549</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1.1425280524365491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1957,35 +1997,35 @@
         <v>1.425674543321602</v>
       </c>
       <c r="D82">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E82">
-        <v>1.147704563131411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1.1477045631314109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8146666666666667</v>
+        <v>0.81466666666666665</v>
       </c>
       <c r="C83">
         <v>1.425674543321602</v>
       </c>
       <c r="D83">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E83">
         <v>1.161449527959332</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8227008547008547</v>
+        <v>0.82270085470085474</v>
       </c>
       <c r="C84">
         <v>1.417797888386124</v>
@@ -1994,129 +2034,129 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E84">
-        <v>1.166423534568331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>1.1664235345683309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8323418803418804</v>
+        <v>0.83234188034188039</v>
       </c>
       <c r="C85">
         <v>1.409921233450645</v>
       </c>
       <c r="D85">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E85">
-        <v>1.173536490584253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>1.1735364905842529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8387692307692308</v>
+        <v>0.83876923076923082</v>
       </c>
       <c r="C86">
         <v>1.402044578515167</v>
       </c>
       <c r="D86">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E86">
         <v>1.175991852625337</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8451965811965811</v>
+        <v>0.84519658119658114</v>
       </c>
       <c r="C87">
         <v>1.394167923579688</v>
       </c>
       <c r="D87">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E87">
-        <v>1.178345962623489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1.1783459626234889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8516239316239317</v>
+        <v>0.85162393162393168</v>
       </c>
       <c r="C88">
         <v>1.394167923579688</v>
       </c>
       <c r="D88">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E88">
-        <v>1.187306768422907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>1.1873067684229071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8580512820512821</v>
+        <v>0.85805128205128212</v>
       </c>
       <c r="C89">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D89">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E89">
-        <v>1.189509000356663</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1.1895090003566631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8644786324786324</v>
+        <v>0.86447863247863244</v>
       </c>
       <c r="C90">
         <v>1.378414613708731</v>
       </c>
       <c r="D90">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E90">
         <v>1.191609980247486</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.870905982905983</v>
+        <v>0.87090598290598298</v>
       </c>
       <c r="C91">
         <v>1.378414613708731</v>
       </c>
       <c r="D91">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E91">
         <v>1.200469534003973</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2124,390 +2164,390 @@
         <v>0.8773333333333333</v>
       </c>
       <c r="C92">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D92">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E92">
         <v>1.202418635830401</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8821538461538462</v>
+        <v>0.88215384615384618</v>
       </c>
       <c r="C93">
         <v>1.362661303837774</v>
       </c>
       <c r="D93">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E93">
         <v>1.202076910185508</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8869743589743589</v>
+        <v>0.88697435897435895</v>
       </c>
       <c r="C94">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D94">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E94">
-        <v>1.201659245508416</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>1.2016592455084161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8934017094017094</v>
+        <v>0.89340170940170938</v>
       </c>
       <c r="C95">
         <v>1.346907993966818</v>
       </c>
       <c r="D95">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E95">
         <v>1.203329904216782</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8966153846153846</v>
+        <v>0.89661538461538459</v>
       </c>
       <c r="C96">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D96">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E96">
         <v>1.200596099057637</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9014358974358975</v>
+        <v>0.90143589743589747</v>
       </c>
       <c r="C97">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D97">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E97">
         <v>1.207050916794506</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9078632478632478</v>
+        <v>0.90786324786324779</v>
       </c>
       <c r="C98">
         <v>1.315401374224904</v>
       </c>
       <c r="D98">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E98">
         <v>1.1942045638476</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9142905982905983</v>
+        <v>0.91429059829059833</v>
       </c>
       <c r="C99">
         <v>1.299648064353947</v>
       </c>
       <c r="D99">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E99">
         <v>1.188256006325388</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9191111111111112</v>
+        <v>0.91911111111111121</v>
       </c>
       <c r="C100">
         <v>1.291771409418468</v>
       </c>
       <c r="D100">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E100">
-        <v>1.187281455412175</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>1.1872814554121749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.923931623931624</v>
+        <v>0.92393162393162398</v>
       </c>
       <c r="C101">
         <v>1.276018099547511</v>
       </c>
       <c r="D101">
-        <v>22.00031206116399</v>
+        <v>22.000312061163989</v>
       </c>
       <c r="E101">
         <v>1.178953474881077</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9287521367521369</v>
+        <v>0.92875213675213686</v>
       </c>
       <c r="C102">
         <v>1.260264789676554</v>
       </c>
       <c r="D102">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E102">
         <v>1.170473616285582</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9335726495726496</v>
+        <v>0.93357264957264963</v>
       </c>
       <c r="C103">
-        <v>1.252388134741076</v>
+        <v>1.2523881347410759</v>
       </c>
       <c r="D103">
-        <v>21.59289887484614</v>
+        <v>21.592898874846139</v>
       </c>
       <c r="E103">
         <v>1.169195309243575</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9367863247863247</v>
+        <v>0.93678632478632473</v>
       </c>
       <c r="C104">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D104">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E104">
         <v>1.165841335321476</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9400000000000001</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="C105">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D105">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E105">
-        <v>1.162436735377912</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>1.1624367353779119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9432136752136753</v>
+        <v>0.94321367521367527</v>
       </c>
       <c r="C106">
         <v>1.228758169934641</v>
       </c>
       <c r="D106">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E106">
-        <v>1.158981509412882</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1.1589815094128819</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.948034188034188</v>
+        <v>0.94803418803418804</v>
       </c>
       <c r="C107">
         <v>1.213004860063684</v>
       </c>
       <c r="D107">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E107">
-        <v>1.149970077591998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>1.1499700775919981</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9512478632478633</v>
+        <v>0.95124786324786326</v>
       </c>
       <c r="C108">
-        <v>1.205128205128205</v>
+        <v>1.2051282051282051</v>
       </c>
       <c r="D108">
-        <v>20.77807250221043</v>
+        <v>20.778072502210431</v>
       </c>
       <c r="E108">
         <v>1.146375630067938</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C109">
         <v>1.197251550192727</v>
       </c>
       <c r="D109">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E109">
         <v>1.142730556522412</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.956068376068376</v>
+        <v>0.95606837606837602</v>
       </c>
       <c r="C110">
         <v>1.189374895257248</v>
       </c>
       <c r="D110">
-        <v>20.50646371133186</v>
+        <v>20.506463711331861</v>
       </c>
       <c r="E110">
         <v>1.137123724645092</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9592820512820514</v>
+        <v>0.95928205128205135</v>
       </c>
       <c r="C111">
         <v>1.18149824032177</v>
       </c>
       <c r="D111">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E111">
         <v>1.133390055562002</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C112">
         <v>1.173621585386291</v>
       </c>
       <c r="D112">
-        <v>20.2348549204533</v>
+        <v>20.234854920453301</v>
       </c>
       <c r="E112">
         <v>1.129605760457445</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C113">
         <v>1.165744930450813</v>
       </c>
       <c r="D113">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E113">
         <v>1.122024513742965</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C114">
         <v>1.157868275515334</v>
       </c>
       <c r="D114">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E114">
-        <v>1.120024785895073</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>1.1200247858950729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2515,75 +2555,75 @@
         <v>0.968923076923077</v>
       </c>
       <c r="C115">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D115">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E115">
-        <v>1.11425341944799</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>1.1142534194479901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C116">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D116">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E116">
-        <v>1.102634747521625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>1.1026347475216249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C117">
-        <v>1.126361655773421</v>
+        <v>1.1263616557734211</v>
       </c>
       <c r="D117">
-        <v>19.42002854781759</v>
+        <v>19.420028547817591</v>
       </c>
       <c r="E117">
         <v>1.096787442042344</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C118">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D118">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E118">
         <v>1.09091482355233</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C119">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D119">
         <v>19.14841975693902</v>
@@ -2592,15 +2632,15 @@
         <v>1.085016892051583</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C120">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D120">
         <v>19.14841975693902</v>
@@ -2609,7 +2649,7 @@
         <v>1.086801459308246</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2617,41 +2657,41 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C121">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D121">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E121">
         <v>1.0808655582914</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C122">
         <v>1.094855036031507</v>
       </c>
       <c r="D122">
-        <v>18.87681096606046</v>
+        <v>18.876810966060461</v>
       </c>
       <c r="E122">
-        <v>1.076663598509752</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>1.0766635985097519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C123">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D123">
         <v>18.74100657062117</v>
@@ -2660,29 +2700,29 @@
         <v>1.070664414966074</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C124">
         <v>1.07910172616055</v>
       </c>
       <c r="D124">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E124">
-        <v>1.062905977176465</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>1.0629059771764651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C125">
         <v>1.071225071225071</v>
@@ -2694,12 +2734,12 @@
         <v>1.056868824116687</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C126">
         <v>1.063348416289593</v>
@@ -2708,15 +2748,15 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E126">
-        <v>1.050806358046177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>1.0508063580461771</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C127">
         <v>1.063348416289593</v>
@@ -2728,7 +2768,7 @@
         <v>1.052514986270642</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2739,13 +2779,13 @@
         <v>1.055471761354114</v>
       </c>
       <c r="D128">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E128">
         <v>1.046414550684033</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>1.038605486872958</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2770,21 +2810,21 @@
         <v>1.002666666666667</v>
       </c>
       <c r="C130">
-        <v>0.882185352773588</v>
+        <v>0.88218535277358801</v>
       </c>
       <c r="D130">
-        <v>15.21009228919979</v>
+        <v>15.210092289199791</v>
       </c>
       <c r="E130">
-        <v>0.8845378470476508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.88453784704765082</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.012307692307692</v>
+        <v>1.0123076923076919</v>
       </c>
       <c r="C131">
         <v>0.7404055639349757</v>
@@ -2793,10 +2833,10 @@
         <v>12.76561317129268</v>
       </c>
       <c r="E131">
-        <v>0.7495182477987906</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.74951824779879062</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2804,50 +2844,50 @@
         <v>1.02034188034188</v>
       </c>
       <c r="C132">
-        <v>0.6222557399027988</v>
+        <v>0.62225573990279881</v>
       </c>
       <c r="D132">
-        <v>10.72854723970343</v>
+        <v>10.728547239703429</v>
       </c>
       <c r="E132">
-        <v>0.6349135917059499</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.63491359170594985</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.028376068376068</v>
+        <v>1.0283760683760681</v>
       </c>
       <c r="C133">
-        <v>0.5277358806770572</v>
+        <v>0.52773588067705723</v>
       </c>
       <c r="D133">
-        <v>9.09889449443202</v>
+        <v>9.0988944944320203</v>
       </c>
       <c r="E133">
-        <v>0.542710950111654</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.54271095011165404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.033196581196581</v>
+        <v>1.0331965811965811</v>
       </c>
       <c r="C134">
         <v>0.441092676386794</v>
       </c>
       <c r="D134">
-        <v>7.605046144599896</v>
+        <v>7.6050461445998963</v>
       </c>
       <c r="E134">
-        <v>0.4557354452336855</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.45573544523368548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2855,67 +2895,67 @@
         <v>1.039623931623932</v>
       </c>
       <c r="C135">
-        <v>0.3702027819674878</v>
+        <v>0.37020278196748779</v>
       </c>
       <c r="D135">
-        <v>6.382806585646342</v>
+        <v>6.3828065856463416</v>
       </c>
       <c r="E135">
-        <v>0.3848716716871569</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.38487167168715691</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.042837606837607</v>
+        <v>1.0428376068376071</v>
       </c>
       <c r="C136">
-        <v>0.3150661974191385</v>
+        <v>0.31506619741913849</v>
       </c>
       <c r="D136">
-        <v>5.432175817571354</v>
+        <v>5.4321758175713537</v>
       </c>
       <c r="E136">
         <v>0.3285628793119994</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.04765811965812</v>
+        <v>1.0476581196581201</v>
       </c>
       <c r="C137">
-        <v>0.2678062678062678</v>
+        <v>0.26780626780626782</v>
       </c>
       <c r="D137">
-        <v>4.617349444935651</v>
+        <v>4.6173494449356509</v>
       </c>
       <c r="E137">
-        <v>0.2805694109625733</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.28056941096257332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.052478632478632</v>
+        <v>1.0524786324786319</v>
       </c>
       <c r="C138">
         <v>0.220546338193397</v>
       </c>
       <c r="D138">
-        <v>3.802523072299948</v>
+        <v>3.8025230722999481</v>
       </c>
       <c r="E138">
-        <v>0.2321203084199565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.23212030841995651</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2923,33 +2963,33 @@
         <v>1.05408547008547</v>
       </c>
       <c r="C139">
-        <v>0.1890397184514832</v>
+        <v>0.18903971845148321</v>
       </c>
       <c r="D139">
-        <v>3.259305490542813</v>
+        <v>3.2593054905428129</v>
       </c>
       <c r="E139">
         <v>0.1992640204887566</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.057299145299145</v>
+        <v>1.0572991452991449</v>
       </c>
       <c r="C140">
         <v>0.1575330987095693</v>
       </c>
       <c r="D140">
-        <v>2.716087908785677</v>
+        <v>2.7160879087856769</v>
       </c>
       <c r="E140">
-        <v>0.1665596106219535</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.16655961062195351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2957,7 +2997,7 @@
         <v>1.06051282051282</v>
       </c>
       <c r="C141">
-        <v>0.1339031339031339</v>
+        <v>0.13390313390313391</v>
       </c>
       <c r="D141">
         <v>2.308674722467825</v>
@@ -2966,7 +3006,7 @@
         <v>0.1420059902111184</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2977,13 +3017,13 @@
         <v>0.1102731690966985</v>
       </c>
       <c r="D142">
-        <v>1.901261536149974</v>
+        <v>1.9012615361499741</v>
       </c>
       <c r="E142">
         <v>0.1173004917358864</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3000,7 +3040,7 @@
         <v>0.1089218851833231</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3008,33 +3048,33 @@
         <v>1.065333333333333</v>
       </c>
       <c r="C144">
-        <v>0.07876654935478464</v>
+        <v>7.8766549354784637E-2</v>
       </c>
       <c r="D144">
         <v>1.358043954392838</v>
       </c>
       <c r="E144">
-        <v>0.08391263057929722</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>8.3912630579297223E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.066940170940171</v>
+        <v>1.0669401709401709</v>
       </c>
       <c r="C145">
-        <v>0.07088989441930618</v>
+        <v>7.0889894419306182E-2</v>
       </c>
       <c r="D145">
-        <v>1.222239558953555</v>
+        <v>1.2222395589535551</v>
       </c>
       <c r="E145">
-        <v>0.07563527606966521</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>7.5635276069665205E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3042,16 +3082,16 @@
         <v>1.068547008547009</v>
       </c>
       <c r="C146">
-        <v>0.05513658454834925</v>
+        <v>5.513658454834925E-2</v>
       </c>
       <c r="D146">
-        <v>0.950630768074987</v>
+        <v>0.95063076807498703</v>
       </c>
       <c r="E146">
-        <v>0.05891603248063781</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>5.8916032480637807E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3059,67 +3099,67 @@
         <v>1.070153846153846</v>
       </c>
       <c r="C147">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D147">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E147">
-        <v>0.05057539544417371</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>5.0575395444173707E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C148">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D148">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E148">
-        <v>0.04220944539697681</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>4.2209445396976811E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.071760683760684</v>
+        <v>1.0717606837606839</v>
       </c>
       <c r="C149">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D149">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E149">
-        <v>0.03376755631758146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3.3767556317581458E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.073367521367521</v>
+        <v>1.0733675213675209</v>
       </c>
       <c r="C150">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D150">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E150">
-        <v>0.0338181823390471</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3.3818182339047098E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3127,16 +3167,16 @@
         <v>1.074974358974359</v>
       </c>
       <c r="C151">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D151">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E151">
-        <v>0.02540160627038455</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>2.5401606270384548E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3144,16 +3184,16 @@
         <v>1.074974358974359</v>
       </c>
       <c r="C152">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D152">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E152">
-        <v>0.02540160627038455</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>2.5401606270384548E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3161,118 +3201,118 @@
         <v>1.074974358974359</v>
       </c>
       <c r="C153">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D153">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E153">
-        <v>0.01693440418025637</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1.6934404180256369E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.076581196581197</v>
+        <v>1.0765811965811971</v>
       </c>
       <c r="C154">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D154">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E154">
-        <v>0.01695971719098919</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1.6959717190989189E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.076581196581197</v>
+        <v>1.0765811965811971</v>
       </c>
       <c r="C155">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D155">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E155">
-        <v>0.008479858595494594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>8.4798585954945944E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.078188034188034</v>
+        <v>1.0781880341880341</v>
       </c>
       <c r="C156">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D156">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E156">
-        <v>0.01698503020172201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>1.6985030201722009E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.078188034188034</v>
+        <v>1.0781880341880341</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.008492515100861006</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>8.4925151008610061E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.078188034188034</v>
+        <v>1.0781880341880341</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.008492515100861006</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>8.4925151008610061E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.078188034188034</v>
+        <v>1.0781880341880341</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.008492515100861006</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>8.4925151008610061E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3280,16 +3320,16 @@
         <v>1.079794871794872</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.008505171606227414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>8.5051716062274144E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3297,16 +3337,16 @@
         <v>1.079794871794872</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.008505171606227414</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>8.5051716062274144E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3323,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3331,16 +3371,16 @@
         <v>1.079794871794872</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.008505171606227414</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>8.5051716062274144E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3357,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3374,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3391,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3408,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3425,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3442,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3459,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3476,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3493,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3510,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3578,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3646,12 +3686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,12 +3805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3782,12 +3822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3799,12 +3839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3816,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.083008547008547</v>
+        <v>1.0830085470085471</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3901,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3918,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3935,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3952,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3969,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3986,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4003,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4020,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4037,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4054,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4071,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4088,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4105,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4122,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4139,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4156,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4173,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4190,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4207,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4224,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4241,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4258,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4275,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4292,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4309,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4326,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4343,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4360,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4377,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4411,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4428,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4445,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4462,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4479,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4496,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4513,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4530,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4564,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4598,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4615,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4632,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4649,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4666,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4683,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4734,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4751,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4768,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4785,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4802,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4853,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4870,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4904,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4921,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
